--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_125_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_125_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,21 +589,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.5820971498520553, 2.2242533213973275]</t>
+          <t>[1.5864133535959821, 2.2199371176534006]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="N2" t="n">
-        <v>1.554312234475219e-15</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="O2" t="n">
         <v>-2.201316173686541</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.364842518017542, -2.03778982935554]</t>
+          <t>[-2.3774214675814647, -2.0252108797916173]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,23 +617,23 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.263220433099578, 0.06760532718792955]</t>
+          <t>[-0.26326682774735466, 0.06765172183570622]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.2399267230467872</v>
+        <v>0.2400565333284173</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2399267230467872</v>
+        <v>0.2400565333284173</v>
       </c>
       <c r="W2" t="n">
         <v>8.345345345345551</v>
       </c>
       <c r="X2" t="n">
-        <v>7.725405405405592</v>
+        <v>7.677717717717906</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.96528528528551</v>
+        <v>9.012972972973197</v>
       </c>
     </row>
   </sheetData>
